--- a/biology/Zoologie/Colonie_corallienne/Colonie_corallienne.xlsx
+++ b/biology/Zoologie/Colonie_corallienne/Colonie_corallienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une colonie de corail, aussi appelée colonie corallienne[1], est un ensemble de polypes partageant au minimum des tissus organiques (le coenosarc chez les coraux durs, le coenenchyme chez les coraux mous), et pour les coraux durs, un exosquelette commun appelé le coenostéum.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une colonie de corail, aussi appelée colonie corallienne, est un ensemble de polypes partageant au minimum des tissus organiques (le coenosarc chez les coraux durs, le coenenchyme chez les coraux mous), et pour les coraux durs, un exosquelette commun appelé le coenostéum.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Exemple des colonies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Distichopora sp, sous sa forme d'"éventail" est bien une colonie. Chaque branche, chaque ramification est le nid de petits polypes.
